--- a/Automatos e Tabelas/TabelaGoto.xlsx
+++ b/Automatos e Tabelas/TabelaGoto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="18">
   <si>
     <t>P</t>
   </si>
@@ -76,10 +76,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,12 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +435,7 @@
   <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1479,8 +1489,8 @@
       <c r="M15" s="2">
         <v>33</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>15</v>
+      <c r="N15" s="3">
+        <v>13</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>15</v>
@@ -4792,6 +4802,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
